--- a/Team-Data/2012-13/3-13-2012-13.xlsx
+++ b/Team-Data/2012-13/3-13-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,19 +733,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" t="n">
         <v>29</v>
       </c>
       <c r="G2" t="n">
-        <v>0.547</v>
+        <v>0.54</v>
       </c>
       <c r="H2" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I2" t="n">
         <v>37.4</v>
@@ -702,7 +769,7 @@
         <v>13.5</v>
       </c>
       <c r="P2" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="Q2" t="n">
         <v>0.705</v>
@@ -711,10 +778,10 @@
         <v>9.4</v>
       </c>
       <c r="S2" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="T2" t="n">
-        <v>40.9</v>
+        <v>40.7</v>
       </c>
       <c r="U2" t="n">
         <v>24.4</v>
@@ -723,7 +790,7 @@
         <v>15.1</v>
       </c>
       <c r="W2" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X2" t="n">
         <v>4.8</v>
@@ -744,19 +811,19 @@
         <v>0.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AE2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF2" t="n">
         <v>11</v>
       </c>
-      <c r="AF2" t="n">
-        <v>10</v>
-      </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI2" t="n">
         <v>11</v>
@@ -792,25 +859,25 @@
         <v>12</v>
       </c>
       <c r="AT2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU2" t="n">
         <v>3</v>
       </c>
       <c r="AV2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY2" t="n">
         <v>7</v>
       </c>
       <c r="AZ2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA2" t="n">
         <v>26</v>
@@ -819,7 +886,7 @@
         <v>17</v>
       </c>
       <c r="BC2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-13-2012-13</t>
+          <t>2013-03-13</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" t="n">
         <v>29</v>
       </c>
       <c r="G3" t="n">
-        <v>0.547</v>
+        <v>0.54</v>
       </c>
       <c r="H3" t="n">
         <v>49.3</v>
@@ -866,10 +933,10 @@
         <v>36.8</v>
       </c>
       <c r="J3" t="n">
-        <v>80.2</v>
+        <v>80.3</v>
       </c>
       <c r="K3" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L3" t="n">
         <v>5.9</v>
@@ -878,16 +945,16 @@
         <v>16.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.35</v>
+        <v>0.349</v>
       </c>
       <c r="O3" t="n">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="P3" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.779</v>
+        <v>0.778</v>
       </c>
       <c r="R3" t="n">
         <v>8.300000000000001</v>
@@ -899,7 +966,7 @@
         <v>40</v>
       </c>
       <c r="U3" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="V3" t="n">
         <v>14.5</v>
@@ -914,28 +981,28 @@
         <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA3" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.90000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AE3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF3" t="n">
         <v>11</v>
       </c>
-      <c r="AF3" t="n">
-        <v>10</v>
-      </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
         <v>1</v>
@@ -956,16 +1023,16 @@
         <v>26</v>
       </c>
       <c r="AN3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO3" t="n">
         <v>21</v>
       </c>
       <c r="AP3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR3" t="n">
         <v>29</v>
@@ -974,10 +1041,10 @@
         <v>11</v>
       </c>
       <c r="AT3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV3" t="n">
         <v>11</v>
@@ -995,7 +1062,7 @@
         <v>27</v>
       </c>
       <c r="BA3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB3" t="n">
         <v>18</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-13-2012-13</t>
+          <t>2013-03-13</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>0.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE4" t="n">
         <v>8</v>
@@ -1120,13 +1187,13 @@
         <v>9</v>
       </c>
       <c r="AH4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI4" t="n">
         <v>28</v>
       </c>
       <c r="AJ4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK4" t="n">
         <v>19</v>
@@ -1138,7 +1205,7 @@
         <v>7</v>
       </c>
       <c r="AN4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO4" t="n">
         <v>12</v>
@@ -1156,7 +1223,7 @@
         <v>20</v>
       </c>
       <c r="AT4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AU4" t="n">
         <v>28</v>
@@ -1165,10 +1232,10 @@
         <v>16</v>
       </c>
       <c r="AW4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY4" t="n">
         <v>12</v>
@@ -1183,7 +1250,7 @@
         <v>19</v>
       </c>
       <c r="BC4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-13-2012-13</t>
+          <t>2013-03-13</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-10</v>
       </c>
       <c r="AD5" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1320,7 +1387,7 @@
         <v>27</v>
       </c>
       <c r="AN5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO5" t="n">
         <v>4</v>
@@ -1332,7 +1399,7 @@
         <v>18</v>
       </c>
       <c r="AR5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS5" t="n">
         <v>28</v>
@@ -1356,7 +1423,7 @@
         <v>30</v>
       </c>
       <c r="AZ5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA5" t="n">
         <v>5</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-13-2012-13</t>
+          <t>2013-03-13</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" t="n">
         <v>35</v>
       </c>
       <c r="F6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" t="n">
-        <v>0.547</v>
+        <v>0.556</v>
       </c>
       <c r="H6" t="n">
         <v>48.3</v>
@@ -1412,28 +1479,28 @@
         <v>35.3</v>
       </c>
       <c r="J6" t="n">
-        <v>81.40000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="K6" t="n">
-        <v>0.433</v>
+        <v>0.434</v>
       </c>
       <c r="L6" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="M6" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.336</v>
+        <v>0.342</v>
       </c>
       <c r="O6" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="P6" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.786</v>
+        <v>0.785</v>
       </c>
       <c r="R6" t="n">
         <v>12.9</v>
@@ -1442,7 +1509,7 @@
         <v>30.6</v>
       </c>
       <c r="T6" t="n">
-        <v>43.4</v>
+        <v>43.5</v>
       </c>
       <c r="U6" t="n">
         <v>22.8</v>
@@ -1451,10 +1518,10 @@
         <v>14.7</v>
       </c>
       <c r="W6" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X6" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y6" t="n">
         <v>5.9</v>
@@ -1463,16 +1530,16 @@
         <v>19.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB6" t="n">
-        <v>92.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AE6" t="n">
         <v>11</v>
@@ -1481,7 +1548,7 @@
         <v>10</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
         <v>21</v>
@@ -1490,10 +1557,10 @@
         <v>26</v>
       </c>
       <c r="AJ6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL6" t="n">
         <v>29</v>
@@ -1502,13 +1569,13 @@
         <v>29</v>
       </c>
       <c r="AN6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO6" t="n">
         <v>17</v>
       </c>
       <c r="AP6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ6" t="n">
         <v>5</v>
@@ -1520,7 +1587,7 @@
         <v>14</v>
       </c>
       <c r="AT6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU6" t="n">
         <v>10</v>
@@ -1529,16 +1596,16 @@
         <v>13</v>
       </c>
       <c r="AW6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AX6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY6" t="n">
         <v>22</v>
       </c>
       <c r="AZ6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA6" t="n">
         <v>16</v>
@@ -1547,7 +1614,7 @@
         <v>29</v>
       </c>
       <c r="BC6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-13-2012-13</t>
+          <t>2013-03-13</t>
         </is>
       </c>
     </row>
@@ -1654,10 +1721,10 @@
         <v>-3.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF7" t="n">
         <v>23</v>
@@ -1681,7 +1748,7 @@
         <v>15</v>
       </c>
       <c r="AM7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN7" t="n">
         <v>20</v>
@@ -1690,10 +1757,10 @@
         <v>10</v>
       </c>
       <c r="AP7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR7" t="n">
         <v>8</v>
@@ -1702,16 +1769,16 @@
         <v>30</v>
       </c>
       <c r="AT7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV7" t="n">
         <v>6</v>
       </c>
       <c r="AW7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX7" t="n">
         <v>29</v>
@@ -1723,7 +1790,7 @@
         <v>26</v>
       </c>
       <c r="BA7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB7" t="n">
         <v>16</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-13-2012-13</t>
+          <t>2013-03-13</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>-0.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AE8" t="n">
         <v>18</v>
@@ -1851,7 +1918,7 @@
         <v>3</v>
       </c>
       <c r="AI8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ8" t="n">
         <v>3</v>
@@ -1860,7 +1927,7 @@
         <v>10</v>
       </c>
       <c r="AL8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM8" t="n">
         <v>11</v>
@@ -1872,10 +1939,10 @@
         <v>15</v>
       </c>
       <c r="AP8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR8" t="n">
         <v>26</v>
@@ -1887,16 +1954,16 @@
         <v>15</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV8" t="n">
         <v>7</v>
       </c>
       <c r="AW8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY8" t="n">
         <v>5</v>
@@ -1911,7 +1978,7 @@
         <v>7</v>
       </c>
       <c r="BC8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-13-2012-13</t>
+          <t>2013-03-13</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="n">
         <v>22</v>
       </c>
       <c r="G9" t="n">
-        <v>0.667</v>
+        <v>0.662</v>
       </c>
       <c r="H9" t="n">
         <v>48.5</v>
@@ -1964,34 +2031,34 @@
         <v>0.479</v>
       </c>
       <c r="L9" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M9" t="n">
         <v>18.9</v>
       </c>
       <c r="N9" t="n">
-        <v>0.347</v>
+        <v>0.345</v>
       </c>
       <c r="O9" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="P9" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="R9" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="S9" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T9" t="n">
-        <v>45</v>
+        <v>44.9</v>
       </c>
       <c r="U9" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="V9" t="n">
         <v>15.2</v>
@@ -2003,7 +2070,7 @@
         <v>6.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="Z9" t="n">
         <v>20.7</v>
@@ -2012,10 +2079,10 @@
         <v>21.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>106</v>
+        <v>105.9</v>
       </c>
       <c r="AC9" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="AD9" t="n">
         <v>2</v>
@@ -2030,7 +2097,7 @@
         <v>6</v>
       </c>
       <c r="AH9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI9" t="n">
         <v>1</v>
@@ -2042,13 +2109,13 @@
         <v>4</v>
       </c>
       <c r="AL9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM9" t="n">
         <v>19</v>
       </c>
-      <c r="AM9" t="n">
-        <v>18</v>
-      </c>
       <c r="AN9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO9" t="n">
         <v>7</v>
@@ -2060,19 +2127,19 @@
         <v>29</v>
       </c>
       <c r="AR9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS9" t="n">
         <v>10</v>
       </c>
       <c r="AT9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU9" t="n">
         <v>2</v>
       </c>
       <c r="AV9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW9" t="n">
         <v>2</v>
@@ -2084,10 +2151,10 @@
         <v>28</v>
       </c>
       <c r="AZ9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB9" t="n">
         <v>3</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-13-2012-13</t>
+          <t>2013-03-13</t>
         </is>
       </c>
     </row>
@@ -2122,25 +2189,25 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" t="n">
         <v>23</v>
       </c>
       <c r="F10" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10" t="n">
-        <v>0.343</v>
+        <v>0.348</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J10" t="n">
-        <v>81.40000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="K10" t="n">
         <v>0.444</v>
@@ -2152,28 +2219,28 @@
         <v>17.3</v>
       </c>
       <c r="N10" t="n">
-        <v>0.362</v>
+        <v>0.363</v>
       </c>
       <c r="O10" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="P10" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.694</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="R10" t="n">
         <v>12.3</v>
       </c>
       <c r="S10" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="T10" t="n">
-        <v>42.7</v>
+        <v>42.8</v>
       </c>
       <c r="U10" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V10" t="n">
         <v>15</v>
@@ -2182,7 +2249,7 @@
         <v>6.8</v>
       </c>
       <c r="X10" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y10" t="n">
         <v>5.7</v>
@@ -2191,10 +2258,10 @@
         <v>19.7</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB10" t="n">
-        <v>94.40000000000001</v>
+        <v>94.3</v>
       </c>
       <c r="AC10" t="n">
         <v>-4</v>
@@ -2206,10 +2273,10 @@
         <v>22</v>
       </c>
       <c r="AF10" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AH10" t="n">
         <v>19</v>
@@ -2218,10 +2285,10 @@
         <v>23</v>
       </c>
       <c r="AJ10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL10" t="n">
         <v>22</v>
@@ -2233,10 +2300,10 @@
         <v>11</v>
       </c>
       <c r="AO10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP10" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AQ10" t="n">
         <v>28</v>
@@ -2245,7 +2312,7 @@
         <v>10</v>
       </c>
       <c r="AS10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT10" t="n">
         <v>11</v>
@@ -2254,7 +2321,7 @@
         <v>24</v>
       </c>
       <c r="AV10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW10" t="n">
         <v>27</v>
@@ -2269,7 +2336,7 @@
         <v>14</v>
       </c>
       <c r="BA10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BB10" t="n">
         <v>23</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-13-2012-13</t>
+          <t>2013-03-13</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" t="n">
         <v>29</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.554</v>
       </c>
       <c r="H11" t="n">
         <v>48.4</v>
@@ -2322,40 +2389,40 @@
         <v>37.7</v>
       </c>
       <c r="J11" t="n">
-        <v>83.09999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="K11" t="n">
-        <v>0.454</v>
+        <v>0.452</v>
       </c>
       <c r="L11" t="n">
         <v>7.9</v>
       </c>
       <c r="M11" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>0.398</v>
+        <v>0.397</v>
       </c>
       <c r="O11" t="n">
         <v>17.3</v>
       </c>
       <c r="P11" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.791</v>
+        <v>0.794</v>
       </c>
       <c r="R11" t="n">
         <v>11</v>
       </c>
       <c r="S11" t="n">
-        <v>34</v>
+        <v>34.1</v>
       </c>
       <c r="T11" t="n">
         <v>45</v>
       </c>
       <c r="U11" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="V11" t="n">
         <v>15.3</v>
@@ -2364,22 +2431,22 @@
         <v>6.8</v>
       </c>
       <c r="X11" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AB11" t="n">
         <v>100.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="AD11" t="n">
         <v>2</v>
@@ -2388,16 +2455,16 @@
         <v>10</v>
       </c>
       <c r="AF11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
         <v>18</v>
       </c>
       <c r="AI11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ11" t="n">
         <v>9</v>
@@ -2409,19 +2476,19 @@
         <v>8</v>
       </c>
       <c r="AM11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN11" t="n">
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP11" t="n">
         <v>16</v>
       </c>
       <c r="AQ11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR11" t="n">
         <v>19</v>
@@ -2430,13 +2497,13 @@
         <v>1</v>
       </c>
       <c r="AT11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU11" t="n">
         <v>14</v>
       </c>
       <c r="AV11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW11" t="n">
         <v>28</v>
@@ -2445,7 +2512,7 @@
         <v>27</v>
       </c>
       <c r="AY11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ11" t="n">
         <v>29</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-13-2012-13</t>
+          <t>2013-03-13</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" t="n">
         <v>30</v>
       </c>
       <c r="G12" t="n">
-        <v>0.538</v>
+        <v>0.531</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
@@ -2504,22 +2571,22 @@
         <v>38.5</v>
       </c>
       <c r="J12" t="n">
-        <v>82.8</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>0.465</v>
+        <v>0.464</v>
       </c>
       <c r="L12" t="n">
         <v>10.8</v>
       </c>
       <c r="M12" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.374</v>
+        <v>0.373</v>
       </c>
       <c r="O12" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="P12" t="n">
         <v>25.3</v>
@@ -2534,40 +2601,40 @@
         <v>32</v>
       </c>
       <c r="T12" t="n">
-        <v>42.9</v>
+        <v>42.8</v>
       </c>
       <c r="U12" t="n">
         <v>23.5</v>
       </c>
       <c r="V12" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="W12" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="X12" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Y12" t="n">
         <v>6.1</v>
       </c>
       <c r="Z12" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA12" t="n">
         <v>20.2</v>
       </c>
       <c r="AB12" t="n">
-        <v>106.9</v>
+        <v>106.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF12" t="n">
         <v>14</v>
@@ -2579,7 +2646,7 @@
         <v>24</v>
       </c>
       <c r="AI12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ12" t="n">
         <v>10</v>
@@ -2597,10 +2664,10 @@
         <v>6</v>
       </c>
       <c r="AO12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AQ12" t="n">
         <v>17</v>
@@ -2630,16 +2697,16 @@
         <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB12" t="n">
         <v>1</v>
       </c>
       <c r="BC12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-13-2012-13</t>
+          <t>2013-03-13</t>
         </is>
       </c>
     </row>
@@ -2668,34 +2735,34 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" t="n">
         <v>24</v>
       </c>
       <c r="G13" t="n">
-        <v>0.625</v>
+        <v>0.619</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
       </c>
       <c r="I13" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="J13" t="n">
         <v>80.40000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L13" t="n">
         <v>7</v>
       </c>
       <c r="M13" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="N13" t="n">
         <v>0.356</v>
@@ -2704,13 +2771,13 @@
         <v>17.1</v>
       </c>
       <c r="P13" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.744</v>
+        <v>0.746</v>
       </c>
       <c r="R13" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="S13" t="n">
         <v>32.9</v>
@@ -2728,34 +2795,34 @@
         <v>7.1</v>
       </c>
       <c r="X13" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="Y13" t="n">
         <v>5.6</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AA13" t="n">
         <v>21.7</v>
       </c>
       <c r="AB13" t="n">
-        <v>94.2</v>
+        <v>94</v>
       </c>
       <c r="AC13" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AE13" t="n">
         <v>7</v>
       </c>
       <c r="AF13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH13" t="n">
         <v>12</v>
@@ -2776,13 +2843,13 @@
         <v>14</v>
       </c>
       <c r="AN13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO13" t="n">
         <v>14</v>
       </c>
       <c r="AP13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ13" t="n">
         <v>19</v>
@@ -2800,7 +2867,7 @@
         <v>27</v>
       </c>
       <c r="AV13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW13" t="n">
         <v>24</v>
@@ -2812,10 +2879,10 @@
         <v>20</v>
       </c>
       <c r="AZ13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB13" t="n">
         <v>25</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-13-2012-13</t>
+          <t>2013-03-13</t>
         </is>
       </c>
     </row>
@@ -2850,64 +2917,64 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" t="n">
         <v>45</v>
       </c>
       <c r="F14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="J14" t="n">
-        <v>80.59999999999999</v>
+        <v>80.7</v>
       </c>
       <c r="K14" t="n">
-        <v>0.477</v>
+        <v>0.478</v>
       </c>
       <c r="L14" t="n">
         <v>7.5</v>
       </c>
       <c r="M14" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="N14" t="n">
-        <v>0.357</v>
+        <v>0.36</v>
       </c>
       <c r="O14" t="n">
         <v>16.5</v>
       </c>
       <c r="P14" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.708</v>
+        <v>0.706</v>
       </c>
       <c r="R14" t="n">
         <v>11.4</v>
       </c>
       <c r="S14" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T14" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U14" t="n">
         <v>23.7</v>
       </c>
       <c r="V14" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W14" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="X14" t="n">
         <v>5.8</v>
@@ -2922,10 +2989,10 @@
         <v>21</v>
       </c>
       <c r="AB14" t="n">
-        <v>100.9</v>
+        <v>101.1</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AD14" t="n">
         <v>2</v>
@@ -2943,7 +3010,7 @@
         <v>30</v>
       </c>
       <c r="AI14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AJ14" t="n">
         <v>24</v>
@@ -2952,13 +3019,13 @@
         <v>5</v>
       </c>
       <c r="AL14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM14" t="n">
         <v>10</v>
       </c>
       <c r="AN14" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AO14" t="n">
         <v>19</v>
@@ -2970,10 +3037,10 @@
         <v>26</v>
       </c>
       <c r="AR14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT14" t="n">
         <v>18</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-13-2012-13</t>
+          <t>2013-03-13</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" t="n">
         <v>34</v>
       </c>
       <c r="F15" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" t="n">
-        <v>0.515</v>
+        <v>0.523</v>
       </c>
       <c r="H15" t="n">
         <v>48.2</v>
@@ -3050,25 +3117,25 @@
         <v>37.3</v>
       </c>
       <c r="J15" t="n">
-        <v>81.3</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L15" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="M15" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="N15" t="n">
-        <v>0.357</v>
+        <v>0.358</v>
       </c>
       <c r="O15" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="P15" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="Q15" t="n">
         <v>0.6889999999999999</v>
@@ -3083,37 +3150,37 @@
         <v>44.6</v>
       </c>
       <c r="U15" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="V15" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W15" t="n">
         <v>7.1</v>
       </c>
       <c r="X15" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y15" t="n">
         <v>5</v>
       </c>
       <c r="Z15" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="AA15" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.4</v>
+        <v>102.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AD15" t="n">
         <v>2</v>
       </c>
       <c r="AE15" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF15" t="n">
         <v>16</v>
@@ -3128,7 +3195,7 @@
         <v>12</v>
       </c>
       <c r="AJ15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK15" t="n">
         <v>8</v>
@@ -3140,10 +3207,10 @@
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP15" t="n">
         <v>1</v>
@@ -3155,28 +3222,28 @@
         <v>12</v>
       </c>
       <c r="AS15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT15" t="n">
         <v>4</v>
       </c>
       <c r="AU15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AW15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY15" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA15" t="n">
         <v>1</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-13-2012-13</t>
+          <t>2013-03-13</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="n">
         <v>19</v>
       </c>
       <c r="G16" t="n">
-        <v>0.698</v>
+        <v>0.694</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
@@ -3232,10 +3299,10 @@
         <v>36.5</v>
       </c>
       <c r="J16" t="n">
-        <v>82</v>
+        <v>82.2</v>
       </c>
       <c r="K16" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L16" t="n">
         <v>4.7</v>
@@ -3244,7 +3311,7 @@
         <v>13.6</v>
       </c>
       <c r="N16" t="n">
-        <v>0.347</v>
+        <v>0.345</v>
       </c>
       <c r="O16" t="n">
         <v>16.2</v>
@@ -3259,10 +3326,10 @@
         <v>13.2</v>
       </c>
       <c r="S16" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="T16" t="n">
-        <v>42.6</v>
+        <v>42.7</v>
       </c>
       <c r="U16" t="n">
         <v>21.5</v>
@@ -3271,7 +3338,7 @@
         <v>14.4</v>
       </c>
       <c r="W16" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X16" t="n">
         <v>5.3</v>
@@ -3289,10 +3356,10 @@
         <v>93.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE16" t="n">
         <v>5</v>
@@ -3310,7 +3377,7 @@
         <v>20</v>
       </c>
       <c r="AJ16" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AK16" t="n">
         <v>16</v>
@@ -3322,25 +3389,25 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AO16" t="n">
         <v>22</v>
       </c>
       <c r="AP16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ16" t="n">
         <v>9</v>
       </c>
       <c r="AR16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS16" t="n">
         <v>26</v>
       </c>
       <c r="AT16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU16" t="n">
         <v>22</v>
@@ -3361,7 +3428,7 @@
         <v>15</v>
       </c>
       <c r="BA16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB16" t="n">
         <v>26</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-13-2012-13</t>
+          <t>2013-03-13</t>
         </is>
       </c>
     </row>
@@ -3396,25 +3463,25 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E17" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F17" t="n">
         <v>14</v>
       </c>
       <c r="G17" t="n">
-        <v>0.778</v>
+        <v>0.774</v>
       </c>
       <c r="H17" t="n">
         <v>48.6</v>
       </c>
       <c r="I17" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="J17" t="n">
-        <v>78.5</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K17" t="n">
         <v>0.495</v>
@@ -3426,22 +3493,22 @@
         <v>21</v>
       </c>
       <c r="N17" t="n">
-        <v>0.384</v>
+        <v>0.387</v>
       </c>
       <c r="O17" t="n">
         <v>17.5</v>
       </c>
       <c r="P17" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.764</v>
+        <v>0.762</v>
       </c>
       <c r="R17" t="n">
         <v>8.5</v>
       </c>
       <c r="S17" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="T17" t="n">
         <v>38.6</v>
@@ -3453,7 +3520,7 @@
         <v>13.5</v>
       </c>
       <c r="W17" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="X17" t="n">
         <v>5.1</v>
@@ -3462,22 +3529,22 @@
         <v>3.2</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="AA17" t="n">
         <v>20.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>103.3</v>
+        <v>103.4</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF17" t="n">
         <v>1</v>
@@ -3501,7 +3568,7 @@
         <v>7</v>
       </c>
       <c r="AM17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN17" t="n">
         <v>3</v>
@@ -3510,7 +3577,7 @@
         <v>11</v>
       </c>
       <c r="AP17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ17" t="n">
         <v>14</v>
@@ -3525,7 +3592,7 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV17" t="n">
         <v>4</v>
@@ -3540,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-13-2012-13</t>
+          <t>2013-03-13</t>
         </is>
       </c>
     </row>
@@ -3578,31 +3645,31 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E18" t="n">
         <v>32</v>
       </c>
       <c r="F18" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" t="n">
-        <v>0.508</v>
+        <v>0.516</v>
       </c>
       <c r="H18" t="n">
         <v>48.4</v>
       </c>
       <c r="I18" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J18" t="n">
-        <v>86.8</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="K18" t="n">
         <v>0.439</v>
       </c>
       <c r="L18" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M18" t="n">
         <v>18.9</v>
@@ -3611,10 +3678,10 @@
         <v>0.357</v>
       </c>
       <c r="O18" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="P18" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="Q18" t="n">
         <v>0.737</v>
@@ -3626,7 +3693,7 @@
         <v>31</v>
       </c>
       <c r="T18" t="n">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
       <c r="U18" t="n">
         <v>22.9</v>
@@ -3635,34 +3702,34 @@
         <v>14.3</v>
       </c>
       <c r="W18" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X18" t="n">
         <v>7.2</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z18" t="n">
         <v>19.4</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="AC18" t="n">
-        <v>-1</v>
+        <v>-0.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE18" t="n">
         <v>17</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG18" t="n">
         <v>16</v>
@@ -3683,19 +3750,19 @@
         <v>18</v>
       </c>
       <c r="AM18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP18" t="n">
         <v>18</v>
       </c>
       <c r="AQ18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR18" t="n">
         <v>6</v>
@@ -3713,7 +3780,7 @@
         <v>9</v>
       </c>
       <c r="AW18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX18" t="n">
         <v>2</v>
@@ -3725,13 +3792,13 @@
         <v>11</v>
       </c>
       <c r="BA18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB18" t="n">
         <v>12</v>
       </c>
       <c r="BC18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-13-2012-13</t>
+          <t>2013-03-13</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19" t="n">
         <v>22</v>
       </c>
       <c r="F19" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" t="n">
-        <v>0.355</v>
+        <v>0.361</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
@@ -3784,7 +3851,7 @@
         <v>0.433</v>
       </c>
       <c r="L19" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="M19" t="n">
         <v>17.9</v>
@@ -3796,25 +3863,25 @@
         <v>18.4</v>
       </c>
       <c r="P19" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.729</v>
+        <v>0.728</v>
       </c>
       <c r="R19" t="n">
         <v>12.5</v>
       </c>
       <c r="S19" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="T19" t="n">
-        <v>42.9</v>
+        <v>43</v>
       </c>
       <c r="U19" t="n">
         <v>22</v>
       </c>
       <c r="V19" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W19" t="n">
         <v>8.199999999999999</v>
@@ -3826,22 +3893,22 @@
         <v>6</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>-3.3</v>
+        <v>-3</v>
       </c>
       <c r="AD19" t="n">
         <v>29</v>
       </c>
       <c r="AE19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF19" t="n">
         <v>20</v>
@@ -3856,10 +3923,10 @@
         <v>25</v>
       </c>
       <c r="AJ19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL19" t="n">
         <v>28</v>
@@ -3871,31 +3938,31 @@
         <v>30</v>
       </c>
       <c r="AO19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AQ19" t="n">
         <v>24</v>
       </c>
       <c r="AR19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AS19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT19" t="n">
         <v>9</v>
       </c>
       <c r="AU19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV19" t="n">
         <v>23</v>
       </c>
       <c r="AW19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX19" t="n">
         <v>17</v>
@@ -3910,10 +3977,10 @@
         <v>2</v>
       </c>
       <c r="BB19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-13-2012-13</t>
+          <t>2013-03-13</t>
         </is>
       </c>
     </row>
@@ -4020,13 +4087,13 @@
         <v>-3.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG20" t="n">
         <v>26</v>
@@ -4035,7 +4102,7 @@
         <v>22</v>
       </c>
       <c r="AI20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ20" t="n">
         <v>25</v>
@@ -4062,13 +4129,13 @@
         <v>10</v>
       </c>
       <c r="AR20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS20" t="n">
         <v>25</v>
       </c>
       <c r="AT20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU20" t="n">
         <v>23</v>
@@ -4086,13 +4153,13 @@
         <v>24</v>
       </c>
       <c r="AZ20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA20" t="n">
         <v>28</v>
       </c>
       <c r="BB20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC20" t="n">
         <v>24</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-13-2012-13</t>
+          <t>2013-03-13</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E21" t="n">
         <v>38</v>
       </c>
       <c r="F21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G21" t="n">
-        <v>0.613</v>
+        <v>0.623</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
@@ -4142,7 +4209,7 @@
         <v>36</v>
       </c>
       <c r="J21" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K21" t="n">
         <v>0.44</v>
@@ -4154,7 +4221,7 @@
         <v>29.2</v>
       </c>
       <c r="N21" t="n">
-        <v>0.368</v>
+        <v>0.367</v>
       </c>
       <c r="O21" t="n">
         <v>16.6</v>
@@ -4163,22 +4230,22 @@
         <v>21.8</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.76</v>
+        <v>0.762</v>
       </c>
       <c r="R21" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S21" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T21" t="n">
-        <v>41.1</v>
+        <v>41.3</v>
       </c>
       <c r="U21" t="n">
         <v>19.4</v>
       </c>
       <c r="V21" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="W21" t="n">
         <v>8.199999999999999</v>
@@ -4190,16 +4257,16 @@
         <v>4</v>
       </c>
       <c r="Z21" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AA21" t="n">
         <v>19.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>99.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="AD21" t="n">
         <v>29</v>
@@ -4211,7 +4278,7 @@
         <v>7</v>
       </c>
       <c r="AG21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH21" t="n">
         <v>29</v>
@@ -4241,16 +4308,16 @@
         <v>17</v>
       </c>
       <c r="AQ21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR21" t="n">
         <v>17</v>
       </c>
       <c r="AS21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AT21" t="n">
         <v>21</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>22</v>
       </c>
       <c r="AU21" t="n">
         <v>29</v>
@@ -4259,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4268,16 +4335,16 @@
         <v>2</v>
       </c>
       <c r="AZ21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA21" t="n">
         <v>21</v>
       </c>
       <c r="BB21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-13-2012-13</t>
+          <t>2013-03-13</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E22" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F22" t="n">
         <v>17</v>
       </c>
       <c r="G22" t="n">
-        <v>0.738</v>
+        <v>0.734</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4324,10 +4391,10 @@
         <v>38.2</v>
       </c>
       <c r="J22" t="n">
-        <v>79.09999999999999</v>
+        <v>79.2</v>
       </c>
       <c r="K22" t="n">
-        <v>0.483</v>
+        <v>0.482</v>
       </c>
       <c r="L22" t="n">
         <v>7.6</v>
@@ -4339,28 +4406,28 @@
         <v>0.39</v>
       </c>
       <c r="O22" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="P22" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.833</v>
+        <v>0.832</v>
       </c>
       <c r="R22" t="n">
         <v>10.3</v>
       </c>
       <c r="S22" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="T22" t="n">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="U22" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V22" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="W22" t="n">
         <v>8.4</v>
@@ -4372,19 +4439,19 @@
         <v>4.1</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AA22" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AB22" t="n">
         <v>106.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
@@ -4396,13 +4463,13 @@
         <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
         <v>7</v>
       </c>
       <c r="AJ22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK22" t="n">
         <v>3</v>
@@ -4411,7 +4478,7 @@
         <v>10</v>
       </c>
       <c r="AM22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN22" t="n">
         <v>2</v>
@@ -4438,7 +4505,7 @@
         <v>19</v>
       </c>
       <c r="AV22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW22" t="n">
         <v>10</v>
@@ -4447,7 +4514,7 @@
         <v>1</v>
       </c>
       <c r="AY22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ22" t="n">
         <v>18</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-13-2012-13</t>
+          <t>2013-03-13</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-6.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4578,10 +4645,10 @@
         <v>29</v>
       </c>
       <c r="AH23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ23" t="n">
         <v>8</v>
@@ -4626,13 +4693,13 @@
         <v>30</v>
       </c>
       <c r="AX23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA23" t="n">
         <v>29</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-13-2012-13</t>
+          <t>2013-03-13</t>
         </is>
       </c>
     </row>
@@ -4670,22 +4737,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E24" t="n">
         <v>24</v>
       </c>
       <c r="F24" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G24" t="n">
-        <v>0.375</v>
+        <v>0.381</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
       </c>
       <c r="I24" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J24" t="n">
         <v>83.90000000000001</v>
@@ -4694,34 +4761,34 @@
         <v>0.442</v>
       </c>
       <c r="L24" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="M24" t="n">
         <v>17.4</v>
       </c>
       <c r="N24" t="n">
-        <v>0.359</v>
+        <v>0.358</v>
       </c>
       <c r="O24" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="P24" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.717</v>
+        <v>0.718</v>
       </c>
       <c r="R24" t="n">
         <v>10.8</v>
       </c>
       <c r="S24" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="T24" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U24" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="V24" t="n">
         <v>13</v>
@@ -4739,7 +4806,7 @@
         <v>18.7</v>
       </c>
       <c r="AA24" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="AB24" t="n">
         <v>92.40000000000001</v>
@@ -4748,7 +4815,7 @@
         <v>-3.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AE24" t="n">
         <v>21</v>
@@ -4763,13 +4830,13 @@
         <v>23</v>
       </c>
       <c r="AI24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ24" t="n">
         <v>6</v>
       </c>
       <c r="AK24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL24" t="n">
         <v>23</v>
@@ -4778,7 +4845,7 @@
         <v>23</v>
       </c>
       <c r="AN24" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4790,7 +4857,7 @@
         <v>25</v>
       </c>
       <c r="AR24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS24" t="n">
         <v>15</v>
@@ -4799,16 +4866,16 @@
         <v>20</v>
       </c>
       <c r="AU24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV24" t="n">
         <v>2</v>
       </c>
       <c r="AW24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AX24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY24" t="n">
         <v>13</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-13-2012-13</t>
+          <t>2013-03-13</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E25" t="n">
         <v>22</v>
       </c>
       <c r="F25" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G25" t="n">
-        <v>0.338</v>
+        <v>0.344</v>
       </c>
       <c r="H25" t="n">
         <v>48.4</v>
@@ -4873,43 +4940,43 @@
         <v>84</v>
       </c>
       <c r="K25" t="n">
-        <v>0.441</v>
+        <v>0.442</v>
       </c>
       <c r="L25" t="n">
         <v>5.7</v>
       </c>
       <c r="M25" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="N25" t="n">
-        <v>0.327</v>
+        <v>0.328</v>
       </c>
       <c r="O25" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="P25" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.741</v>
+        <v>0.742</v>
       </c>
       <c r="R25" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S25" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T25" t="n">
-        <v>41.4</v>
+        <v>41.6</v>
       </c>
       <c r="U25" t="n">
         <v>22.3</v>
       </c>
       <c r="V25" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W25" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X25" t="n">
         <v>5.4</v>
@@ -4921,37 +4988,37 @@
         <v>20.7</v>
       </c>
       <c r="AA25" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>94.40000000000001</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>-6</v>
+        <v>-5.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG25" t="n">
         <v>24</v>
       </c>
-      <c r="AF25" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>26</v>
-      </c>
       <c r="AH25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ25" t="n">
         <v>5</v>
       </c>
       <c r="AK25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL25" t="n">
         <v>26</v>
@@ -4972,40 +5039,40 @@
         <v>20</v>
       </c>
       <c r="AR25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS25" t="n">
         <v>24</v>
       </c>
       <c r="AT25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AU25" t="n">
         <v>15</v>
       </c>
       <c r="AV25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX25" t="n">
         <v>11</v>
       </c>
       <c r="AY25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ25" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BA25" t="n">
         <v>27</v>
       </c>
       <c r="BB25" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BC25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-13-2012-13</t>
+          <t>2013-03-13</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-1.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AE26" t="n">
         <v>19</v>
@@ -5124,13 +5191,13 @@
         <v>19</v>
       </c>
       <c r="AH26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI26" t="n">
         <v>18</v>
       </c>
       <c r="AJ26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK26" t="n">
         <v>15</v>
@@ -5142,7 +5209,7 @@
         <v>5</v>
       </c>
       <c r="AN26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO26" t="n">
         <v>20</v>
@@ -5151,7 +5218,7 @@
         <v>22</v>
       </c>
       <c r="AQ26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR26" t="n">
         <v>18</v>
@@ -5160,7 +5227,7 @@
         <v>18</v>
       </c>
       <c r="AT26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AU26" t="n">
         <v>21</v>
@@ -5175,7 +5242,7 @@
         <v>22</v>
       </c>
       <c r="AY26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ26" t="n">
         <v>7</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-13-2012-13</t>
+          <t>2013-03-13</t>
         </is>
       </c>
     </row>
@@ -5216,112 +5283,112 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F27" t="n">
         <v>43</v>
       </c>
       <c r="G27" t="n">
-        <v>0.348</v>
+        <v>0.338</v>
       </c>
       <c r="H27" t="n">
         <v>48.5</v>
       </c>
       <c r="I27" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J27" t="n">
         <v>83.7</v>
       </c>
       <c r="K27" t="n">
-        <v>0.445</v>
+        <v>0.443</v>
       </c>
       <c r="L27" t="n">
         <v>7.2</v>
       </c>
       <c r="M27" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N27" t="n">
-        <v>0.367</v>
+        <v>0.366</v>
       </c>
       <c r="O27" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="P27" t="n">
         <v>23.1</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.769</v>
+        <v>0.767</v>
       </c>
       <c r="R27" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S27" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="T27" t="n">
         <v>40.5</v>
       </c>
       <c r="U27" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V27" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W27" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="X27" t="n">
         <v>4.2</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Z27" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA27" t="n">
         <v>20.2</v>
       </c>
       <c r="AB27" t="n">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>-5.3</v>
+        <v>-6.1</v>
       </c>
       <c r="AD27" t="n">
         <v>2</v>
       </c>
       <c r="AE27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH27" t="n">
         <v>13</v>
       </c>
       <c r="AI27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ27" t="n">
         <v>7</v>
       </c>
       <c r="AK27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL27" t="n">
         <v>14</v>
       </c>
       <c r="AM27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN27" t="n">
         <v>10</v>
@@ -5345,16 +5412,16 @@
         <v>26</v>
       </c>
       <c r="AU27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV27" t="n">
         <v>18</v>
       </c>
       <c r="AW27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY27" t="n">
         <v>27</v>
@@ -5366,10 +5433,10 @@
         <v>14</v>
       </c>
       <c r="BB27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-13-2012-13</t>
+          <t>2013-03-13</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>8.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5488,13 +5555,13 @@
         <v>2</v>
       </c>
       <c r="AH28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI28" t="n">
         <v>2</v>
       </c>
       <c r="AJ28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5536,7 +5603,7 @@
         <v>5</v>
       </c>
       <c r="AX28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY28" t="n">
         <v>9</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-13-2012-13</t>
+          <t>2013-03-13</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E29" t="n">
         <v>25</v>
       </c>
       <c r="F29" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G29" t="n">
-        <v>0.385</v>
+        <v>0.391</v>
       </c>
       <c r="H29" t="n">
         <v>48.9</v>
@@ -5598,7 +5665,7 @@
         <v>36.4</v>
       </c>
       <c r="J29" t="n">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="K29" t="n">
         <v>0.442</v>
@@ -5607,10 +5674,10 @@
         <v>7.4</v>
       </c>
       <c r="M29" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="N29" t="n">
-        <v>0.35</v>
+        <v>0.351</v>
       </c>
       <c r="O29" t="n">
         <v>17.6</v>
@@ -5619,22 +5686,22 @@
         <v>22.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.783</v>
+        <v>0.782</v>
       </c>
       <c r="R29" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S29" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="T29" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="U29" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="V29" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="W29" t="n">
         <v>7.5</v>
@@ -5643,7 +5710,7 @@
         <v>4.7</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z29" t="n">
         <v>22.9</v>
@@ -5652,13 +5719,13 @@
         <v>20</v>
       </c>
       <c r="AB29" t="n">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>-1.6</v>
+        <v>-1.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE29" t="n">
         <v>20</v>
@@ -5673,7 +5740,7 @@
         <v>2</v>
       </c>
       <c r="AI29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ29" t="n">
         <v>11</v>
@@ -5685,10 +5752,10 @@
         <v>13</v>
       </c>
       <c r="AM29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO29" t="n">
         <v>9</v>
@@ -5700,13 +5767,13 @@
         <v>6</v>
       </c>
       <c r="AR29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AS29" t="n">
         <v>27</v>
       </c>
       <c r="AT29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AU29" t="n">
         <v>18</v>
@@ -5718,10 +5785,10 @@
         <v>18</v>
       </c>
       <c r="AX29" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AY29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-13-2012-13</t>
+          <t>2013-03-13</t>
         </is>
       </c>
     </row>
@@ -5762,43 +5829,43 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E30" t="n">
         <v>33</v>
       </c>
       <c r="F30" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G30" t="n">
-        <v>0.508</v>
+        <v>0.516</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
       </c>
       <c r="I30" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="J30" t="n">
-        <v>82</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L30" t="n">
         <v>6</v>
       </c>
       <c r="M30" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="N30" t="n">
         <v>0.359</v>
       </c>
       <c r="O30" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="P30" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="Q30" t="n">
         <v>0.767</v>
@@ -5807,16 +5874,16 @@
         <v>12.5</v>
       </c>
       <c r="S30" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T30" t="n">
-        <v>42.5</v>
+        <v>42.6</v>
       </c>
       <c r="U30" t="n">
         <v>22.6</v>
       </c>
       <c r="V30" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W30" t="n">
         <v>8.199999999999999</v>
@@ -5825,22 +5892,22 @@
         <v>6.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AB30" t="n">
-        <v>98.2</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.7</v>
+        <v>-0.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE30" t="n">
         <v>16</v>
@@ -5858,7 +5925,7 @@
         <v>16</v>
       </c>
       <c r="AJ30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK30" t="n">
         <v>14</v>
@@ -5873,7 +5940,7 @@
         <v>14</v>
       </c>
       <c r="AO30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP30" t="n">
         <v>7</v>
@@ -5882,22 +5949,22 @@
         <v>13</v>
       </c>
       <c r="AR30" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AS30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AW30" t="n">
         <v>13</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>11</v>
       </c>
       <c r="AX30" t="n">
         <v>5</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-13-2012-13</t>
+          <t>2013-03-13</t>
         </is>
       </c>
     </row>
@@ -5944,52 +6011,52 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F31" t="n">
         <v>42</v>
       </c>
       <c r="G31" t="n">
-        <v>0.333</v>
+        <v>0.323</v>
       </c>
       <c r="H31" t="n">
         <v>48.6</v>
       </c>
       <c r="I31" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="J31" t="n">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="K31" t="n">
-        <v>0.431</v>
+        <v>0.43</v>
       </c>
       <c r="L31" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M31" t="n">
         <v>18.4</v>
       </c>
       <c r="N31" t="n">
-        <v>0.357</v>
+        <v>0.355</v>
       </c>
       <c r="O31" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="P31" t="n">
         <v>20.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.735</v>
+        <v>0.739</v>
       </c>
       <c r="R31" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S31" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="T31" t="n">
         <v>43.5</v>
@@ -5998,7 +6065,7 @@
         <v>21.8</v>
       </c>
       <c r="V31" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W31" t="n">
         <v>7.3</v>
@@ -6016,13 +6083,13 @@
         <v>18.9</v>
       </c>
       <c r="AB31" t="n">
-        <v>91.90000000000001</v>
+        <v>91.7</v>
       </c>
       <c r="AC31" t="n">
-        <v>-3.1</v>
+        <v>-3.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6040,19 +6107,19 @@
         <v>27</v>
       </c>
       <c r="AJ31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK31" t="n">
         <v>29</v>
       </c>
       <c r="AL31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM31" t="n">
         <v>20</v>
       </c>
       <c r="AN31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO31" t="n">
         <v>25</v>
@@ -6061,34 +6128,34 @@
         <v>25</v>
       </c>
       <c r="AQ31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS31" t="n">
         <v>7</v>
       </c>
       <c r="AT31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU31" t="n">
         <v>20</v>
       </c>
       <c r="AV31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AW31" t="n">
         <v>20</v>
       </c>
       <c r="AX31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY31" t="n">
         <v>10</v>
       </c>
       <c r="AZ31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA31" t="n">
         <v>25</v>
@@ -6097,7 +6164,7 @@
         <v>30</v>
       </c>
       <c r="BC31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-13-2012-13</t>
+          <t>2013-03-13</t>
         </is>
       </c>
     </row>
